--- a/results/ML/MLR_cat_enroll_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/MLR_train.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1728E-5CBB-4C3B-B46D-7C78116D60AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15053AAE-0E5E-46DD-9042-8A37F3D3C12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/MLR_train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15053AAE-0E5E-46DD-9042-8A37F3D3C12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3CDEE-A62F-4D66-A8C4-B57C2E8F3A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/MLR_train.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3CDEE-A62F-4D66-A8C4-B57C2E8F3A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF21BA3-E57A-4DF6-8F3A-6906EB4FA8B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/MLR_train.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF21BA3-E57A-4DF6-8F3A-6906EB4FA8B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9A690-1568-4150-B96F-AF2470C7C27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
